--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_023.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -47,9 +50,15 @@
     <t>Atto di riconoscimento materno</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.tipoRiconoscimento,in,(1,3)}</t>
+  </si>
+  <si>
     <t>Atto di riconoscimento paterno</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.tipoRiconoscimento,in,(2,3)}</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -89,6 +98,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -143,6 +155,9 @@
     <t>cognome</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.tipoRiconoscimento,=,2}</t>
+  </si>
+  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -275,6 +290,9 @@
     <t>evento.padre</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.tipoRiconoscimento,=,1}</t>
+  </si>
+  <si>
     <t>Figlio</t>
   </si>
   <si>
@@ -363,6 +381,9 @@
   </si>
   <si>
     <t>evento.riconoscimento.atto</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneNascita.tipoRiconoscimento,in,(1,2)}</t>
   </si>
   <si>
     <t>Atto Nascita Intestatario</t>
@@ -457,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -469,6 +490,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="51.46875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -490,205 +512,238 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -710,2505 +765,2883 @@
       <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F120" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_023.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_023.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_023.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="137">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,58 +32,61 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del dichiarante</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Atto di riconoscimento materno</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneNascita.tipoRiconoscimento,in,(1,3)}</t>
+  </si>
+  <si>
+    <t>Atto di riconoscimento paterno</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneNascita.tipoRiconoscimento,in,(2,3)}</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>114-quinquies.1</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del dichiarante</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Atto di riconoscimento materno</t>
-  </si>
-  <si>
-    <t>{evento.trascrizioneNascita.tipoRiconoscimento,in,(1,3)}</t>
-  </si>
-  <si>
-    <t>Atto di riconoscimento paterno</t>
-  </si>
-  <si>
-    <t>{evento.trascrizioneNascita.tipoRiconoscimento,in,(2,3)}</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>114-quinquies.1</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -766,1703 +769,1703 @@
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2473,19 +2476,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2496,19 +2499,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2519,19 +2522,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2542,19 +2545,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2565,19 +2568,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2588,19 +2591,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2611,19 +2614,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2634,19 +2637,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2657,19 +2660,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2680,19 +2683,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>16</v>
@@ -2703,19 +2706,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>16</v>
@@ -2726,19 +2729,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2749,19 +2752,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2772,19 +2775,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2795,19 +2798,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2818,19 +2821,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2841,19 +2844,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2864,19 +2867,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2887,19 +2890,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2910,19 +2913,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2933,19 +2936,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2956,19 +2959,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>16</v>
@@ -2979,19 +2982,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>16</v>
@@ -3002,646 +3005,646 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_023.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_023.xlsx
@@ -50,13 +50,13 @@
     <t>Atto di riconoscimento materno</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRiconoscimento,in,(1,3)}</t>
+    <t>evento.trascrizioneNascita.tipoRiconoscimento,in,(1,3)</t>
   </si>
   <si>
     <t>Atto di riconoscimento paterno</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRiconoscimento,in,(2,3)}</t>
+    <t>evento.trascrizioneNascita.tipoRiconoscimento,in,(2,3)</t>
   </si>
   <si>
     <t>Formula</t>
@@ -158,7 +158,7 @@
     <t>cognome</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRiconoscimento,=,2}</t>
+    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,2</t>
   </si>
   <si>
     <t>Nome</t>
@@ -293,7 +293,7 @@
     <t>evento.padre</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRiconoscimento,=,1}</t>
+    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,1</t>
   </si>
   <si>
     <t>Figlio</t>
@@ -386,7 +386,7 @@
     <t>evento.riconoscimento.atto</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRiconoscimento,in,(1,2)}</t>
+    <t>evento.trascrizioneNascita.tipoRiconoscimento,in,(1,2)</t>
   </si>
   <si>
     <t>Atto Nascita Intestatario</t>
@@ -493,7 +493,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="51.46875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="50.08203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_023.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="139">
   <si>
     <t>Sezione</t>
   </si>
@@ -215,6 +215,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -356,22 +362,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Riconoscimento madre</t>
@@ -481,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1171,7 +1177,7 @@
         <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>46</v>
@@ -1263,7 +1269,7 @@
         <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>46</v>
@@ -1378,7 +1384,7 @@
         <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>46</v>
@@ -1441,574 +1447,574 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>29</v>
@@ -2016,19 +2022,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2039,19 +2045,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2062,19 +2068,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2085,19 +2091,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2108,22 +2114,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>29</v>
@@ -2131,19 +2137,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2154,19 +2160,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>16</v>
@@ -2177,19 +2183,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2200,22 +2206,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>29</v>
@@ -2223,22 +2229,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>29</v>
@@ -2246,19 +2252,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2269,19 +2275,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2292,22 +2298,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>29</v>
@@ -2315,19 +2321,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2338,22 +2344,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>29</v>
@@ -2361,19 +2367,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>16</v>
@@ -2384,19 +2390,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2407,22 +2413,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>29</v>
@@ -2430,22 +2436,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>29</v>
@@ -2456,22 +2462,22 @@
         <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87">
@@ -2479,22 +2485,22 @@
         <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88">
@@ -2502,39 +2508,39 @@
         <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2545,19 +2551,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2568,19 +2574,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2591,19 +2597,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2614,19 +2620,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2637,19 +2643,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2660,19 +2666,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2683,22 +2689,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>12</v>
@@ -2706,22 +2712,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>12</v>
@@ -2729,88 +2735,88 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2821,19 +2827,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2844,19 +2850,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2867,19 +2873,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2890,19 +2896,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2913,19 +2919,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2936,19 +2942,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2959,22 +2965,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>14</v>
@@ -2982,22 +2988,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>14</v>
@@ -3008,7 +3014,7 @@
         <v>122</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3017,13 +3023,13 @@
         <v>123</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111">
@@ -3031,22 +3037,22 @@
         <v>122</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>123</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112">
@@ -3054,7 +3060,7 @@
         <v>122</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
@@ -3063,306 +3069,306 @@
         <v>123</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
+      <c r="E122" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D123" s="2" t="s">
+      <c r="E123" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D124" s="2" t="s">
+      <c r="E124" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3373,19 +3379,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3396,19 +3402,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3419,19 +3425,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3442,19 +3448,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3465,19 +3471,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3488,19 +3494,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3511,19 +3517,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3534,19 +3540,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3560,16 +3566,16 @@
         <v>127</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3583,19 +3589,19 @@
         <v>127</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>29</v>
@@ -3606,16 +3612,16 @@
         <v>127</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3626,24 +3632,93 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D137" s="2" t="s">
+      <c r="C139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
+      <c r="E140" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_023.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -291,6 +291,36 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -487,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -497,7 +527,7 @@
     <col min="2" max="2" width="45.2734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="50.08203125" customWidth="true" bestFit="true"/>
   </cols>
@@ -1470,778 +1500,778 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>16</v>
@@ -2252,19 +2282,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2275,19 +2305,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2298,19 +2328,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2321,19 +2351,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2344,19 +2374,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2367,22 +2397,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>29</v>
@@ -2390,22 +2420,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>29</v>
@@ -2413,22 +2443,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>29</v>
@@ -2436,19 +2466,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>16</v>
@@ -2459,22 +2489,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>29</v>
@@ -2482,19 +2512,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2505,19 +2535,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2528,1169 +2558,1169 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F138" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3701,24 +3731,346 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D140" s="2" t="s">
+      <c r="B150" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
+      <c r="E154" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_023.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -167,6 +167,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -221,13 +227,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -517,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1023,7 +1029,7 @@
         <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>46</v>
@@ -1115,7 +1121,7 @@
         <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>46</v>
@@ -1230,7 +1236,7 @@
         <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>46</v>
@@ -1322,7 +1328,7 @@
         <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>46</v>
@@ -1437,7 +1443,7 @@
         <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>46</v>
@@ -1506,7 +1512,7 @@
         <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>46</v>
@@ -1615,712 +1621,712 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>29</v>
@@ -2328,19 +2334,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2351,19 +2357,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2374,19 +2380,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2397,19 +2403,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2420,22 +2426,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>29</v>
@@ -2443,19 +2449,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2466,22 +2472,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>29</v>
@@ -2489,19 +2495,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>16</v>
@@ -2512,19 +2518,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2535,22 +2541,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>29</v>
@@ -2558,22 +2564,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>29</v>
@@ -2581,19 +2587,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2604,19 +2610,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2627,22 +2633,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>29</v>
@@ -2650,19 +2656,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2673,22 +2679,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>29</v>
@@ -2696,19 +2702,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>16</v>
@@ -2719,19 +2725,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2742,22 +2748,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>29</v>
@@ -2765,22 +2771,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>29</v>
@@ -2788,19 +2794,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2811,22 +2817,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>29</v>
@@ -2834,19 +2840,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2857,22 +2863,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>29</v>
@@ -2883,22 +2889,22 @@
         <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104">
@@ -2906,22 +2912,22 @@
         <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105">
@@ -2929,39 +2935,39 @@
         <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2972,19 +2978,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2995,19 +3001,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3018,19 +3024,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3041,19 +3047,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3064,19 +3070,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3087,22 +3093,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>12</v>
@@ -3110,22 +3116,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>12</v>
@@ -3133,19 +3139,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3156,88 +3162,88 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3248,19 +3254,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3271,19 +3277,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3294,19 +3300,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3317,19 +3323,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3340,19 +3346,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3363,22 +3369,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>14</v>
@@ -3386,22 +3392,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>14</v>
@@ -3409,19 +3415,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3435,7 +3441,7 @@
         <v>134</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3444,13 +3450,13 @@
         <v>135</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128">
@@ -3458,22 +3464,22 @@
         <v>134</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129">
@@ -3481,7 +3487,7 @@
         <v>134</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
@@ -3490,306 +3496,306 @@
         <v>135</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
+      <c r="E139" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D140" s="2" t="s">
+      <c r="E140" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D141" s="2" t="s">
+      <c r="E141" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3800,19 +3806,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3823,19 +3829,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3846,19 +3852,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3869,19 +3875,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3892,19 +3898,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3915,19 +3921,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3938,19 +3944,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3961,19 +3967,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -3987,16 +3993,16 @@
         <v>139</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E151" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4010,19 +4016,19 @@
         <v>139</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>29</v>
@@ -4033,16 +4039,16 @@
         <v>139</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4053,24 +4059,93 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D154" s="2" t="s">
+      <c r="C156" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E154" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
+      <c r="E157" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_023.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -523,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1305,7 +1311,7 @@
         <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>46</v>
@@ -1328,7 +1334,7 @@
         <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>46</v>
@@ -1466,7 +1472,7 @@
         <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>46</v>
@@ -1535,7 +1541,7 @@
         <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>46</v>
@@ -1644,735 +1650,735 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>29</v>
@@ -2380,19 +2386,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2403,19 +2409,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2426,19 +2432,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2449,19 +2455,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2472,19 +2478,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2495,22 +2501,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>29</v>
@@ -2518,19 +2524,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2541,19 +2547,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>16</v>
@@ -2564,22 +2570,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>29</v>
@@ -2587,22 +2593,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>29</v>
@@ -2610,22 +2616,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>29</v>
@@ -2633,19 +2639,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2656,19 +2662,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2679,22 +2685,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>29</v>
@@ -2702,22 +2708,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>29</v>
@@ -2725,22 +2731,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>29</v>
@@ -2748,22 +2754,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>29</v>
@@ -2771,19 +2777,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>16</v>
@@ -2794,19 +2800,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2817,22 +2823,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>29</v>
@@ -2840,22 +2846,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>29</v>
@@ -2863,19 +2869,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2886,22 +2892,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>29</v>
@@ -2909,19 +2915,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2932,22 +2938,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>29</v>
@@ -2958,22 +2964,22 @@
         <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107">
@@ -2981,22 +2987,22 @@
         <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108">
@@ -3004,39 +3010,39 @@
         <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3047,19 +3053,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3070,19 +3076,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3093,19 +3099,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3116,19 +3122,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3139,19 +3145,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3162,22 +3168,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>12</v>
@@ -3185,22 +3191,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>12</v>
@@ -3208,19 +3214,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3231,88 +3237,88 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3323,19 +3329,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3346,19 +3352,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3369,19 +3375,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3392,19 +3398,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3415,19 +3421,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3438,22 +3444,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>14</v>
@@ -3461,22 +3467,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>14</v>
@@ -3484,19 +3490,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3510,7 +3516,7 @@
         <v>136</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3519,13 +3525,13 @@
         <v>137</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131">
@@ -3533,22 +3539,22 @@
         <v>136</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132">
@@ -3556,7 +3562,7 @@
         <v>136</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
@@ -3565,306 +3571,306 @@
         <v>137</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
+      <c r="E142" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D143" s="2" t="s">
+      <c r="E143" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="E144" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3875,19 +3881,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3898,19 +3904,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3921,19 +3927,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3944,19 +3950,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3967,19 +3973,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -3990,19 +3996,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4013,19 +4019,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4036,19 +4042,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4062,16 +4068,16 @@
         <v>141</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E154" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4085,19 +4091,19 @@
         <v>141</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>29</v>
@@ -4108,16 +4114,16 @@
         <v>141</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4128,24 +4134,93 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D157" s="2" t="s">
+      <c r="C159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E157" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
+      <c r="E160" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_023.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -529,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1495,7 +1501,7 @@
         <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>46</v>
@@ -1564,7 +1570,7 @@
         <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>46</v>
@@ -1673,758 +1679,758 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="E81" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>29</v>
@@ -2432,19 +2438,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2455,19 +2461,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2478,19 +2484,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2501,19 +2507,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2524,19 +2530,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2547,22 +2553,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>29</v>
@@ -2570,19 +2576,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2593,19 +2599,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>16</v>
@@ -2616,22 +2622,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>29</v>
@@ -2639,22 +2645,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>29</v>
@@ -2662,22 +2668,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>29</v>
@@ -2685,22 +2691,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>29</v>
@@ -2708,19 +2714,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2731,19 +2737,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>16</v>
@@ -2754,22 +2760,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>29</v>
@@ -2777,22 +2783,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>29</v>
@@ -2800,22 +2806,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>29</v>
@@ -2823,22 +2829,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>29</v>
@@ -2846,19 +2852,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>16</v>
@@ -2869,19 +2875,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2892,22 +2898,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>29</v>
@@ -2915,22 +2921,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>29</v>
@@ -2938,19 +2944,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2961,22 +2967,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>29</v>
@@ -2984,19 +2990,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3007,22 +3013,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>29</v>
@@ -3033,22 +3039,22 @@
         <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110">
@@ -3056,22 +3062,22 @@
         <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111">
@@ -3079,39 +3085,39 @@
         <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3122,19 +3128,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3145,19 +3151,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3168,19 +3174,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3191,19 +3197,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3214,19 +3220,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3237,22 +3243,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>12</v>
@@ -3260,22 +3266,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>12</v>
@@ -3283,19 +3289,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3306,88 +3312,88 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3398,19 +3404,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3421,19 +3427,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3444,19 +3450,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3467,19 +3473,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3490,19 +3496,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3513,22 +3519,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>14</v>
@@ -3536,22 +3542,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>14</v>
@@ -3559,19 +3565,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3585,7 +3591,7 @@
         <v>138</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -3594,13 +3600,13 @@
         <v>139</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134">
@@ -3608,22 +3614,22 @@
         <v>138</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135">
@@ -3631,7 +3637,7 @@
         <v>138</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
@@ -3640,306 +3646,306 @@
         <v>139</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
+      <c r="E145" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D146" s="2" t="s">
+      <c r="E146" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D147" s="2" t="s">
+      <c r="E147" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3950,19 +3956,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3973,19 +3979,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -3996,19 +4002,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4019,19 +4025,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4042,19 +4048,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4065,19 +4071,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4088,19 +4094,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4111,19 +4117,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4137,16 +4143,16 @@
         <v>143</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="E157" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4160,19 +4166,19 @@
         <v>143</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>29</v>
@@ -4183,16 +4189,16 @@
         <v>143</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4203,24 +4209,93 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D160" s="2" t="s">
+      <c r="C162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E160" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
+      <c r="E163" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_023.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -420,6 +420,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -535,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3364,7 +3370,7 @@
         <v>136</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>116</v>
@@ -3373,7 +3379,7 @@
         <v>137</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>12</v>
@@ -3381,42 +3387,42 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3427,19 +3433,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3450,19 +3456,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3473,19 +3479,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3496,19 +3502,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3519,19 +3525,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3542,19 +3548,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3565,19 +3571,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3588,22 +3594,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>14</v>
@@ -3611,19 +3617,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>16</v>
@@ -3634,22 +3640,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>14</v>
@@ -3660,7 +3666,7 @@
         <v>140</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3669,13 +3675,13 @@
         <v>141</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137">
@@ -3683,7 +3689,7 @@
         <v>140</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
@@ -3692,329 +3698,329 @@
         <v>141</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
+      <c r="E148" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D149" s="2" t="s">
+      <c r="E149" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D150" s="2" t="s">
+      <c r="E150" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4025,19 +4031,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4048,19 +4054,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4071,19 +4077,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4094,19 +4100,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4117,19 +4123,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4140,19 +4146,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4163,19 +4169,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4186,19 +4192,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4212,16 +4218,16 @@
         <v>145</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="E160" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4235,19 +4241,19 @@
         <v>145</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>29</v>
@@ -4258,16 +4264,16 @@
         <v>145</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4281,21 +4287,113 @@
         <v>145</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D163" s="2" t="s">
+      <c r="C166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E163" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
+      <c r="E167" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_023.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -541,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1093,7 +1105,7 @@
         <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>46</v>
@@ -1116,7 +1128,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>46</v>
@@ -1162,7 +1174,7 @@
         <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>46</v>
@@ -1185,7 +1197,7 @@
         <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>46</v>
@@ -1277,7 +1289,7 @@
         <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>46</v>
@@ -1300,7 +1312,7 @@
         <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>46</v>
@@ -1323,7 +1335,7 @@
         <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>46</v>
@@ -1346,7 +1358,7 @@
         <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>46</v>
@@ -1530,7 +1542,7 @@
         <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>46</v>
@@ -1553,7 +1565,7 @@
         <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>46</v>
@@ -1599,7 +1611,7 @@
         <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>46</v>
@@ -1622,7 +1634,7 @@
         <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>46</v>
@@ -1708,827 +1720,827 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>29</v>
@@ -2536,19 +2548,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2559,19 +2571,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2582,19 +2594,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2605,22 +2617,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>29</v>
@@ -2628,22 +2640,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>29</v>
@@ -2651,22 +2663,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>29</v>
@@ -2674,22 +2686,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>29</v>
@@ -2697,19 +2709,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2720,19 +2732,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2743,19 +2755,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>16</v>
@@ -2766,22 +2778,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>29</v>
@@ -2789,22 +2801,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>29</v>
@@ -2812,19 +2824,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>16</v>
@@ -2835,19 +2847,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2858,22 +2870,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>29</v>
@@ -2881,22 +2893,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>29</v>
@@ -2904,19 +2916,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>16</v>
@@ -2927,22 +2939,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>29</v>
@@ -2950,22 +2962,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>29</v>
@@ -2973,19 +2985,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2996,22 +3008,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>29</v>
@@ -3019,19 +3031,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3042,19 +3054,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>16</v>
@@ -3065,22 +3077,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>29</v>
@@ -3088,22 +3100,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>29</v>
@@ -3111,157 +3123,157 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3272,19 +3284,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3295,19 +3307,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3318,22 +3330,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>12</v>
@@ -3341,22 +3353,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>12</v>
@@ -3364,22 +3376,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>12</v>
@@ -3387,19 +3399,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3410,157 +3422,157 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3571,19 +3583,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3594,19 +3606,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3617,22 +3629,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>14</v>
@@ -3640,22 +3652,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>14</v>
@@ -3663,22 +3675,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>14</v>
@@ -3686,19 +3698,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3709,456 +3721,456 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4169,19 +4181,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4192,19 +4204,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4215,19 +4227,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4238,19 +4250,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4261,19 +4273,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4284,19 +4296,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4307,19 +4319,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4330,22 +4342,22 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>29</v>
@@ -4353,19 +4365,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4376,24 +4388,162 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D167" s="2" t="s">
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
+      <c r="E173" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>29</v>
       </c>
     </row>
